--- a/biology/Médecine/1526_en_santé_et_médecine/1526_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1526_en_santé_et_médecine/1526_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1526_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1526_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1526 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1526_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1526_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Création du « premier hôpital royal [de Hongrie], fondé à Buda à partir de l'ancien hospice du Saint-Esprit[1] ».
-La fondation d'un lazaret est attestée pour la première fois à Marseille, établissement implanté près de l'anse de l'Ourse, à la limite Nord de la ville[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Création du « premier hôpital royal [de Hongrie], fondé à Buda à partir de l'ancien hospice du Saint-Esprit ».
+La fondation d'un lazaret est attestée pour la première fois à Marseille, établissement implanté près de l'anse de l'Ourse, à la limite Nord de la ville.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1526_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1526_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>27 mars : un arrêt du Parlement de Paris donne à la faculté de médecine, qui seule a le droit de disposer de cadavres de condamnés, le corps d'un certain Jehan Despastures, « pour faire sur ycelluy corps aucunez experiences concernant l’art et science de medecine[3] ».
-5 décembre : Paracelse (1493-1541) s'affilie à la guilde Zur Lutzerne de Strasbourg, ville libre d'Empire, en  Alsace[4],[5].
-Leonhart Fuchs (1501-1566) obtient la chaire de médecine d'Ingolstadt, en Bavière[6].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>27 mars : un arrêt du Parlement de Paris donne à la faculté de médecine, qui seule a le droit de disposer de cadavres de condamnés, le corps d'un certain Jehan Despastures, « pour faire sur ycelluy corps aucunez experiences concernant l’art et science de medecine ».
+5 décembre : Paracelse (1493-1541) s'affilie à la guilde Zur Lutzerne de Strasbourg, ville libre d'Empire, en  Alsace,.
+Leonhart Fuchs (1501-1566) obtient la chaire de médecine d'Ingolstadt, en Bavière.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1526_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1526_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Claude Agnus, apothicaire à Gray, en Franche Comté[7].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Claude Agnus, apothicaire à Gray, en Franche Comté.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1526_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1526_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12 mars : Charles de L'Écluse (mort en 1609), médecin et botaniste flamand de langue française[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12 mars : Charles de L'Écluse (mort en 1609), médecin et botaniste flamand de langue française.</t>
         </is>
       </c>
     </row>
@@ -616,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1526_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1526_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -634,10 +654,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Septembre : Eucharius Rösslin (né en 1470), apothicaire et médecin obstétricien allemand[9].
-Étienne Romieu (né à une date inconnue), apothicaire à Mende, et l'un des trois consuls de la ville en 1494[10].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Septembre : Eucharius Rösslin (né en 1470), apothicaire et médecin obstétricien allemand.
+Étienne Romieu (né à une date inconnue), apothicaire à Mende, et l'un des trois consuls de la ville en 1494.</t>
         </is>
       </c>
     </row>
